--- a/data/trans_orig/P16A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>30297</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20405</v>
+        <v>20836</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42059</v>
+        <v>44212</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02936559362359988</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01977711661155494</v>
+        <v>0.02019536374264429</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04076592812322864</v>
+        <v>0.04285233796751456</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -765,19 +765,19 @@
         <v>89102</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72918</v>
+        <v>71977</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>108430</v>
+        <v>107636</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0677522826214714</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05544625609409757</v>
+        <v>0.05473094879841137</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08244915207279152</v>
+        <v>0.0818450632761682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -786,19 +786,19 @@
         <v>119399</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100177</v>
+        <v>96834</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>141203</v>
+        <v>140250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05087661141972866</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04268586689358281</v>
+        <v>0.04126164816535715</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0601676060215766</v>
+        <v>0.0597611771563101</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>1001426</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>989664</v>
+        <v>987511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1011318</v>
+        <v>1010887</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9706344063764001</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9592340718767713</v>
+        <v>0.9571476620324854</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.980222883388445</v>
+        <v>0.9798046362573557</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1201</v>
@@ -836,19 +836,19 @@
         <v>1226011</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1206683</v>
+        <v>1207477</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1242195</v>
+        <v>1243136</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9322477173785286</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9175508479272082</v>
+        <v>0.9181549367238317</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9445537439059024</v>
+        <v>0.9452690512015886</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2210</v>
@@ -857,19 +857,19 @@
         <v>2227436</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2205632</v>
+        <v>2206585</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2246658</v>
+        <v>2250001</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9491233885802713</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9398323939784233</v>
+        <v>0.9402388228436899</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9573141331064167</v>
+        <v>0.9587383518346411</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>24499</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16526</v>
+        <v>15838</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35898</v>
+        <v>36497</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01447583086820586</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009765067784872588</v>
+        <v>0.009358223941946358</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02121131719707766</v>
+        <v>0.02156543097673336</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>71</v>
@@ -982,19 +982,19 @@
         <v>73287</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58530</v>
+        <v>56069</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92647</v>
+        <v>92093</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04615981758422465</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0368655809069213</v>
+        <v>0.03531504583112219</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05835421384841043</v>
+        <v>0.05800495979085703</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>95</v>
@@ -1003,19 +1003,19 @@
         <v>97786</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78984</v>
+        <v>80133</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119339</v>
+        <v>119552</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0298120435588872</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02408009970416772</v>
+        <v>0.02443038809359605</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03638305825344098</v>
+        <v>0.03644794597028064</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1667895</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1656496</v>
+        <v>1655897</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1675868</v>
+        <v>1676556</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9855241691317942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9787886828029224</v>
+        <v>0.9784345690232668</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9902349322151276</v>
+        <v>0.9906417760580537</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1483</v>
@@ -1053,19 +1053,19 @@
         <v>1514386</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1495026</v>
+        <v>1495580</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1529143</v>
+        <v>1531604</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9538401824157754</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9416457861515896</v>
+        <v>0.941995040209143</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9631344190930787</v>
+        <v>0.9646849541688778</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3107</v>
@@ -1074,19 +1074,19 @@
         <v>3182281</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3160728</v>
+        <v>3160515</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3201083</v>
+        <v>3199934</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9701879564411128</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9636169417465589</v>
+        <v>0.9635520540297197</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9759199002958322</v>
+        <v>0.9755696119064041</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>18481</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10647</v>
+        <v>10981</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>29796</v>
+        <v>31190</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03351658734728938</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01930801571480571</v>
+        <v>0.01991442607020723</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05403662512152502</v>
+        <v>0.0565635425279702</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1199,19 +1199,19 @@
         <v>17297</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10028</v>
+        <v>10644</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27621</v>
+        <v>27262</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03630769105832137</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02104896703302568</v>
+        <v>0.0223419418338813</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05797728391685598</v>
+        <v>0.05722278591787145</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1220,19 +1220,19 @@
         <v>35779</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25469</v>
+        <v>23806</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50518</v>
+        <v>49031</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03481031080115916</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02477921344270566</v>
+        <v>0.02316182052657757</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0491507747249153</v>
+        <v>0.04770386995425394</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>532927</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>521612</v>
+        <v>520218</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>540761</v>
+        <v>540427</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9664834126527106</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9459633748784749</v>
+        <v>0.9434364574720298</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9806919842851943</v>
+        <v>0.9800855739297928</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>435</v>
@@ -1270,19 +1270,19 @@
         <v>459115</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>448791</v>
+        <v>449150</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>466384</v>
+        <v>465768</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9636923089416787</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.942022716083144</v>
+        <v>0.9427772140821284</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9789510329669743</v>
+        <v>0.9776580581661187</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>946</v>
@@ -1291,19 +1291,19 @@
         <v>992041</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>977302</v>
+        <v>978789</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1002351</v>
+        <v>1004014</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9651896891988409</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9508492252750848</v>
+        <v>0.9522961300457461</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9752207865572944</v>
+        <v>0.9768381794734224</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>73277</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>58554</v>
+        <v>56794</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94586</v>
+        <v>91144</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02237115483049533</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01787624841270709</v>
+        <v>0.0173388800541074</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0288765491678696</v>
+        <v>0.0278258246201784</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>178</v>
@@ -1416,19 +1416,19 @@
         <v>179686</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156609</v>
+        <v>152963</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>207697</v>
+        <v>204565</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05317416256904241</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04634489438971721</v>
+        <v>0.04526609960611089</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06146344848268166</v>
+        <v>0.06053652538851954</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>247</v>
@@ -1437,19 +1437,19 @@
         <v>252963</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>224524</v>
+        <v>225201</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>284559</v>
+        <v>285471</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03801259464494729</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03373898616079787</v>
+        <v>0.03384077625063487</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04276052137304136</v>
+        <v>0.04289754052789286</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3202248</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3180939</v>
+        <v>3184381</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3216971</v>
+        <v>3218731</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9776288451695047</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9711234508321306</v>
+        <v>0.9721741753798209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9821237515872929</v>
+        <v>0.9826611199458924</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3119</v>
@@ -1487,19 +1487,19 @@
         <v>3199511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3171500</v>
+        <v>3174632</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3222588</v>
+        <v>3226234</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9468258374309576</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9385365515173183</v>
+        <v>0.9394634746114805</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9536551056102824</v>
+        <v>0.9547339003938904</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6263</v>
@@ -1508,19 +1508,19 @@
         <v>6401759</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6370163</v>
+        <v>6369251</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6430198</v>
+        <v>6429521</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9619874053550527</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9572394786269589</v>
+        <v>0.9571024594721073</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9662610138392023</v>
+        <v>0.9661592237493654</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>16259</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8936</v>
+        <v>8584</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30316</v>
+        <v>28905</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01672991093220756</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009194490663655609</v>
+        <v>0.008833023327989161</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03119429455368888</v>
+        <v>0.02974233990041022</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>101</v>
@@ -1872,19 +1872,19 @@
         <v>109176</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>90523</v>
+        <v>89590</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>132294</v>
+        <v>129582</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08192791496546456</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0679297707066778</v>
+        <v>0.06723023820239658</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09927563711411913</v>
+        <v>0.09724090603142159</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>114</v>
@@ -1893,19 +1893,19 @@
         <v>125435</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102813</v>
+        <v>103233</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>148946</v>
+        <v>148856</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05443222403975544</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04461556974230226</v>
+        <v>0.04479766279934729</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06463481828006508</v>
+        <v>0.06459551522844403</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>955578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>941521</v>
+        <v>942932</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>962901</v>
+        <v>963253</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9832700890677925</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9688057054463107</v>
+        <v>0.9702576600995898</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9908055093363444</v>
+        <v>0.9911669766720108</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1141</v>
@@ -1943,19 +1943,19 @@
         <v>1223415</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1200297</v>
+        <v>1203009</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1242068</v>
+        <v>1243001</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9180720850345354</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9007243628858795</v>
+        <v>0.9027590939685785</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9320702292933218</v>
+        <v>0.9327697617976034</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2034</v>
@@ -1964,19 +1964,19 @@
         <v>2178993</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2155482</v>
+        <v>2155572</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2201615</v>
+        <v>2201195</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9455677759602445</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9353651817199349</v>
+        <v>0.9354044847715559</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9553844302576979</v>
+        <v>0.9552023372006526</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>21511</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14357</v>
+        <v>13339</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>33690</v>
+        <v>32887</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01097464841827716</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007325169445359439</v>
+        <v>0.006805347787802098</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01718882012859081</v>
+        <v>0.01677869584303497</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -2089,19 +2089,19 @@
         <v>77269</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60171</v>
+        <v>59077</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95759</v>
+        <v>96272</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04415937572970116</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03438798354476487</v>
+        <v>0.03376243969205324</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05472637068885163</v>
+        <v>0.05501971298089911</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>91</v>
@@ -2110,19 +2110,19 @@
         <v>98779</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>79646</v>
+        <v>79589</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120259</v>
+        <v>122415</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02662664120897902</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02146924871792173</v>
+        <v>0.02145365136483263</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03241672216276097</v>
+        <v>0.03299783992715038</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1938511</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1926332</v>
+        <v>1927135</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1945665</v>
+        <v>1946683</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9890253515817229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9828111798714092</v>
+        <v>0.9832213041569644</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9926748305546406</v>
+        <v>0.9931946522121978</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1558</v>
@@ -2160,19 +2160,19 @@
         <v>1672501</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1654011</v>
+        <v>1653498</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1689599</v>
+        <v>1690693</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9558406242702988</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9452736293111484</v>
+        <v>0.9449802870191009</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9656120164552352</v>
+        <v>0.9662375603079469</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3389</v>
@@ -2181,19 +2181,19 @@
         <v>3611013</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3589533</v>
+        <v>3587377</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3630146</v>
+        <v>3630203</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9733733587910209</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9675832778372399</v>
+        <v>0.9670021600728497</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9785307512820784</v>
+        <v>0.9785463486351675</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>7786</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2832</v>
+        <v>2844</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16220</v>
+        <v>18862</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01621026930433891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005895804810388076</v>
+        <v>0.005921943139161691</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03376804820221745</v>
+        <v>0.03926840560317117</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -2306,19 +2306,19 @@
         <v>26584</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17833</v>
+        <v>16876</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38235</v>
+        <v>38062</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05808862593813258</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03896710638237101</v>
+        <v>0.03687467384026751</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08354638533687191</v>
+        <v>0.08316665642683116</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -2327,19 +2327,19 @@
         <v>34371</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24105</v>
+        <v>22970</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50828</v>
+        <v>48153</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03664320327070331</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02569815921179002</v>
+        <v>0.02448815846966046</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05418850880210645</v>
+        <v>0.05133606522618982</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>472546</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>464112</v>
+        <v>461470</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>477500</v>
+        <v>477488</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9837897306956611</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9662319517977827</v>
+        <v>0.9607315943968289</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9941041951896119</v>
+        <v>0.9940780568608384</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>387</v>
@@ -2377,19 +2377,19 @@
         <v>431070</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>419419</v>
+        <v>419592</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>439821</v>
+        <v>440778</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9419113740618674</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9164536146631279</v>
+        <v>0.9168333435731688</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.961032893617629</v>
+        <v>0.9631253261597325</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>818</v>
@@ -2398,19 +2398,19 @@
         <v>903615</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>887158</v>
+        <v>889833</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>913881</v>
+        <v>915016</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9633567967292966</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9458114911978938</v>
+        <v>0.9486639347738102</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.97430184078821</v>
+        <v>0.9755118415303395</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>45556</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>33800</v>
+        <v>33145</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64431</v>
+        <v>62031</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01335083799812552</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009905753278187063</v>
+        <v>0.009713788632527375</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01888247701738104</v>
+        <v>0.01817925894626468</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>195</v>
@@ -2523,19 +2523,19 @@
         <v>213030</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>186651</v>
+        <v>184159</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>243770</v>
+        <v>245003</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06017760895759777</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05272603102640745</v>
+        <v>0.05202197709933518</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06886118680458202</v>
+        <v>0.06920967081674591</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>235</v>
@@ -2544,19 +2544,19 @@
         <v>258585</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>226264</v>
+        <v>227084</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>297471</v>
+        <v>293821</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03719470433942679</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03254567177882461</v>
+        <v>0.03266354856350798</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04278801532888894</v>
+        <v>0.04226304386166337</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3366635</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3347760</v>
+        <v>3350160</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3378391</v>
+        <v>3379046</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9866491620018745</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9811175229826191</v>
+        <v>0.9818207410537355</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9900942467218129</v>
+        <v>0.9902862113674726</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3086</v>
@@ -2594,19 +2594,19 @@
         <v>3326985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3296245</v>
+        <v>3295012</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3353364</v>
+        <v>3355856</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9398223910424023</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.931138813195418</v>
+        <v>0.9307903291832541</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9472739689735925</v>
+        <v>0.9479780229006648</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6241</v>
@@ -2615,19 +2615,19 @@
         <v>6693621</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6654735</v>
+        <v>6658385</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6725942</v>
+        <v>6725122</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9628052956605732</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.957211984671111</v>
+        <v>0.9577369561383362</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9674543282211753</v>
+        <v>0.9673364514364919</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>11723</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6445</v>
+        <v>6527</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20053</v>
+        <v>19716</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01554070344560481</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008543639497664419</v>
+        <v>0.008652593541992541</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0265833122583719</v>
+        <v>0.02613603699661361</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -2979,19 +2979,19 @@
         <v>53514</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39344</v>
+        <v>39679</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>69940</v>
+        <v>69748</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05380146509749657</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03955504365366574</v>
+        <v>0.03989194548171077</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07031532014962853</v>
+        <v>0.0701228772921603</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -3000,19 +3000,19 @@
         <v>65237</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49499</v>
+        <v>50145</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82089</v>
+        <v>83829</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03729959684645228</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02830139951005639</v>
+        <v>0.02867027678494803</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04693435224738764</v>
+        <v>0.04792931522240415</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>742624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>734294</v>
+        <v>734631</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>747902</v>
+        <v>747820</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9844592965543952</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.973416687741628</v>
+        <v>0.9738639630033864</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9914563605023355</v>
+        <v>0.9913474064580075</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>845</v>
@@ -3050,19 +3050,19 @@
         <v>941146</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>924720</v>
+        <v>924912</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>955316</v>
+        <v>954981</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9461985349025034</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9296846798503715</v>
+        <v>0.9298771227078401</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9604449563463343</v>
+        <v>0.9601080545182894</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1594</v>
@@ -3071,19 +3071,19 @@
         <v>1683770</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1666918</v>
+        <v>1665178</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1699508</v>
+        <v>1698862</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9627004031535478</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9530656477526124</v>
+        <v>0.952070684777596</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9716986004899436</v>
+        <v>0.971329723215052</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>24241</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15696</v>
+        <v>15198</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35750</v>
+        <v>35586</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01167455999879828</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007559074344608199</v>
+        <v>0.007319501449141765</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01721741312220567</v>
+        <v>0.01713832109009845</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>65</v>
@@ -3196,19 +3196,19 @@
         <v>66922</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>51209</v>
+        <v>52840</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>84112</v>
+        <v>84393</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03365771652967281</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02575531312877807</v>
+        <v>0.02657540686278751</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04230346473291712</v>
+        <v>0.04244484164065303</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -3217,19 +3217,19 @@
         <v>91163</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73300</v>
+        <v>71428</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>112803</v>
+        <v>111277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02242794217457189</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01803339262962265</v>
+        <v>0.01757293663442529</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02775208145807112</v>
+        <v>0.02737643732079411</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2052144</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2040635</v>
+        <v>2040799</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2060689</v>
+        <v>2061187</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9883254400012017</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9827825868777944</v>
+        <v>0.9828616789099014</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.992440925655392</v>
+        <v>0.9926804985508583</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1843</v>
@@ -3267,19 +3267,19 @@
         <v>1921378</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1904188</v>
+        <v>1903907</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1937091</v>
+        <v>1935460</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9663422834703272</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9576965352670829</v>
+        <v>0.9575551583593469</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9742446868712219</v>
+        <v>0.9734245931372124</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3772</v>
@@ -3288,19 +3288,19 @@
         <v>3973522</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3951882</v>
+        <v>3953408</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3991385</v>
+        <v>3993257</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9775720578254281</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9722479185419289</v>
+        <v>0.9726235626792059</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9819666073703774</v>
+        <v>0.9824270633655748</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>6360</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2374</v>
+        <v>2173</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12943</v>
+        <v>12954</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01163015361356837</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004340044227938429</v>
+        <v>0.003974149536328539</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02366603164299108</v>
+        <v>0.02368747737608375</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -3413,19 +3413,19 @@
         <v>25695</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16644</v>
+        <v>16238</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38338</v>
+        <v>35920</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04679222073039883</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03030917187811175</v>
+        <v>0.02957046702605216</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06981522469623218</v>
+        <v>0.06541189244274821</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -3434,19 +3434,19 @@
         <v>32056</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23037</v>
+        <v>22626</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47214</v>
+        <v>45283</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02924734520726023</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02101850873688242</v>
+        <v>0.02064363297319846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04307780872704727</v>
+        <v>0.04131556908825988</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>540526</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>533943</v>
+        <v>533932</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>544512</v>
+        <v>544713</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9883698463864317</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9763339683570084</v>
+        <v>0.9763125226239163</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9956599557720606</v>
+        <v>0.9960258504636714</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>502</v>
@@ -3484,19 +3484,19 @@
         <v>523445</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>510802</v>
+        <v>513220</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>532496</v>
+        <v>532902</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9532077792696012</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9301847753037689</v>
+        <v>0.9345881075572517</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9696908281218884</v>
+        <v>0.9704295329739481</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>997</v>
@@ -3505,19 +3505,19 @@
         <v>1063971</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1048813</v>
+        <v>1050744</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1072990</v>
+        <v>1073401</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9707526547927398</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9569221912729532</v>
+        <v>0.95868443091174</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9789814912631176</v>
+        <v>0.9793563670268016</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>42324</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31183</v>
+        <v>29892</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57320</v>
+        <v>57023</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01253082252472103</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009232283458828894</v>
+        <v>0.008849958522264827</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01697062547111538</v>
+        <v>0.01688273279353471</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>136</v>
@@ -3630,19 +3630,19 @@
         <v>146131</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>124155</v>
+        <v>125057</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>171816</v>
+        <v>172563</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04137235286992143</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03515041141979074</v>
+        <v>0.03540595456643193</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04864422241997698</v>
+        <v>0.04885576977462585</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>178</v>
@@ -3651,19 +3651,19 @@
         <v>188456</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>164371</v>
+        <v>160476</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>219837</v>
+        <v>217552</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02727399706007091</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02378835219953633</v>
+        <v>0.02322472486724079</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03181560255609402</v>
+        <v>0.03148489293487119</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3335294</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3320298</v>
+        <v>3320595</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3346435</v>
+        <v>3347726</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.987469177475279</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9830293745288844</v>
+        <v>0.9831172672064653</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.990767716541171</v>
+        <v>0.9911500414777352</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3190</v>
@@ -3701,19 +3701,19 @@
         <v>3385969</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3360284</v>
+        <v>3359537</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3407945</v>
+        <v>3407043</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9586276471300785</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.951355777580023</v>
+        <v>0.9511442302253741</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9648495885802092</v>
+        <v>0.9645940454335681</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6363</v>
@@ -3722,19 +3722,19 @@
         <v>6721262</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6689881</v>
+        <v>6692166</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6745347</v>
+        <v>6749242</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9727260029399291</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9681843974439061</v>
+        <v>0.9685151070651288</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9762116478004638</v>
+        <v>0.9767752751327592</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>22708</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16258</v>
+        <v>15353</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33200</v>
+        <v>32697</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03935197771936975</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0281743762460149</v>
+        <v>0.02660574588829272</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05753393017021757</v>
+        <v>0.05666255873429893</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>121</v>
@@ -4086,19 +4086,19 @@
         <v>65462</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54313</v>
+        <v>55450</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77272</v>
+        <v>79471</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.07985318920959511</v>
+        <v>0.0798531892095951</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06625285860656493</v>
+        <v>0.06763911649824142</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09425826431258796</v>
+        <v>0.09694112037482283</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>153</v>
@@ -4107,19 +4107,19 @@
         <v>88170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>75270</v>
+        <v>75300</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>104276</v>
+        <v>104130</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06312168108682877</v>
+        <v>0.06312168108682875</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05388588986383472</v>
+        <v>0.05390735935727964</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0746517487784074</v>
+        <v>0.07454710546356905</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>554339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>543847</v>
+        <v>544350</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>560789</v>
+        <v>561694</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9606480222806303</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9424660698297819</v>
+        <v>0.9433374412657011</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.971825623753985</v>
+        <v>0.9733942541117073</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1302</v>
@@ -4157,19 +4157,19 @@
         <v>754323</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>742513</v>
+        <v>740314</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>765472</v>
+        <v>764335</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9201468107904051</v>
+        <v>0.9201468107904049</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9057417356874121</v>
+        <v>0.9030588796251773</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9337471413934353</v>
+        <v>0.9323608835017586</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1959</v>
@@ -4178,19 +4178,19 @@
         <v>1308662</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1292556</v>
+        <v>1292702</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1321562</v>
+        <v>1321532</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9368783189131713</v>
+        <v>0.9368783189131712</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9253482512215926</v>
+        <v>0.9254528945364309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9461141101361655</v>
+        <v>0.9460926406427204</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>41314</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29380</v>
+        <v>29635</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54792</v>
+        <v>56090</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01852175447747423</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01317134170991449</v>
+        <v>0.01328579827220917</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02456404205336877</v>
+        <v>0.02514590319268637</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>152</v>
@@ -4303,19 +4303,19 @@
         <v>96679</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>82410</v>
+        <v>79765</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>114708</v>
+        <v>114335</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.04453824057485829</v>
+        <v>0.04453824057485828</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03796466050187573</v>
+        <v>0.03674601214492937</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05284376615778097</v>
+        <v>0.05267189469108483</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>197</v>
@@ -4324,19 +4324,19 @@
         <v>137993</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>118464</v>
+        <v>118788</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159159</v>
+        <v>161196</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03135308016743565</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0269158372982098</v>
+        <v>0.02698944207966806</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03616208030144169</v>
+        <v>0.03662473690779153</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2189252</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2175774</v>
+        <v>2174476</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2201186</v>
+        <v>2200931</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9814782455225258</v>
+        <v>0.981478245522526</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9754359579466306</v>
+        <v>0.9748540968073134</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9868286582900851</v>
+        <v>0.9867142017277908</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2768</v>
@@ -4374,19 +4374,19 @@
         <v>2074028</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2055999</v>
+        <v>2056372</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2088297</v>
+        <v>2090942</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9554617594251417</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9471562338422191</v>
+        <v>0.9473281053089152</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9620353394981244</v>
+        <v>0.9632539878550704</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4715</v>
@@ -4395,19 +4395,19 @@
         <v>4263281</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4242115</v>
+        <v>4240078</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4282810</v>
+        <v>4282486</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9686469198325643</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9638379196985584</v>
+        <v>0.9633752630922086</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.97308416270179</v>
+        <v>0.973010557920332</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>12161</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6245</v>
+        <v>6321</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21715</v>
+        <v>21794</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.0170893700705592</v>
+        <v>0.01708937007055919</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008776344796935686</v>
+        <v>0.008882676069971583</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03051578389448856</v>
+        <v>0.03062697713119868</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -4520,19 +4520,19 @@
         <v>35982</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26831</v>
+        <v>26077</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46541</v>
+        <v>46373</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0489635166056744</v>
+        <v>0.04896351660567438</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03651089597747046</v>
+        <v>0.03548445517381199</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06333146455806103</v>
+        <v>0.06310311052048034</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -4541,19 +4541,19 @@
         <v>48143</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37412</v>
+        <v>37385</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61722</v>
+        <v>61787</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03328305417491859</v>
+        <v>0.03328305417491858</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02586433049642297</v>
+        <v>0.02584562297099445</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04267083591860223</v>
+        <v>0.04271594362085432</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>699426</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>689872</v>
+        <v>689793</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>705342</v>
+        <v>705266</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9829106299294408</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9694842161055118</v>
+        <v>0.9693730228688017</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9912236552030647</v>
+        <v>0.9911173239300285</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>952</v>
@@ -4591,19 +4591,19 @@
         <v>698895</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>688336</v>
+        <v>688504</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>708046</v>
+        <v>708800</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9510364833943256</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9366685354419388</v>
+        <v>0.9368968894795193</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9634891040225294</v>
+        <v>0.964515544826188</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1622</v>
@@ -4612,19 +4612,19 @@
         <v>1398321</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1384742</v>
+        <v>1384677</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1409052</v>
+        <v>1409079</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9667169458250814</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9573291640813981</v>
+        <v>0.9572840563791458</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9741356695035771</v>
+        <v>0.9741543770290056</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>76183</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60123</v>
+        <v>60615</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94516</v>
+        <v>95306</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02164767781382486</v>
+        <v>0.02164767781382487</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0170841903193561</v>
+        <v>0.01722404907875493</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02685732831410276</v>
+        <v>0.02708162509426609</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>325</v>
@@ -4737,19 +4737,19 @@
         <v>198124</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>176912</v>
+        <v>177424</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>223086</v>
+        <v>222641</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05318240114203319</v>
+        <v>0.0531824011420332</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04748836675418776</v>
+        <v>0.04762585160059311</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05988290386004903</v>
+        <v>0.05976335827139573</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>413</v>
@@ -4758,19 +4758,19 @@
         <v>274307</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>246121</v>
+        <v>248413</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>304434</v>
+        <v>302432</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03786375350936873</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03397322258201505</v>
+        <v>0.03428956205690172</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04202242499777131</v>
+        <v>0.04174600106463555</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3443017</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3424684</v>
+        <v>3423894</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3459077</v>
+        <v>3458585</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.978352322186175</v>
+        <v>0.9783523221861752</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9731426716858972</v>
+        <v>0.9729183749057339</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9829158096806437</v>
+        <v>0.982775950921245</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5022</v>
@@ -4808,19 +4808,19 @@
         <v>3527245</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3502283</v>
+        <v>3502728</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3548457</v>
+        <v>3547945</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9468175988579669</v>
+        <v>0.9468175988579668</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9401170961399511</v>
+        <v>0.9402366417286042</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9525116332458123</v>
+        <v>0.9523741483994069</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8296</v>
@@ -4829,19 +4829,19 @@
         <v>6970263</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6940136</v>
+        <v>6942138</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6998449</v>
+        <v>6996157</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9621362464906311</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9579775750022289</v>
+        <v>0.9582539989353643</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.966026777417985</v>
+        <v>0.9657104379430982</v>
       </c>
     </row>
     <row r="15">
